--- a/public/outputs/contact.xlsx
+++ b/public/outputs/contact.xlsx
@@ -376,82 +376,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>title</v>
+        <v>name</v>
       </c>
       <c r="B1" t="str">
-        <v>subtitle</v>
+        <v>email</v>
       </c>
       <c r="C1" t="str">
-        <v>email</v>
+        <v>message</v>
       </c>
       <c r="D1" t="str">
         <v>date</v>
       </c>
       <c r="E1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="F1" t="str">
-        <v>name</v>
-      </c>
-      <c r="G1" t="str">
-        <v>email</v>
-      </c>
-      <c r="H1" t="str">
-        <v>message</v>
-      </c>
-      <c r="I1" t="str">
-        <v>date</v>
-      </c>
-      <c r="J1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="K1" t="str">
-        <v>title</v>
-      </c>
-      <c r="L1" t="str">
-        <v>subtitle</v>
-      </c>
-      <c r="M1" t="str">
-        <v>email</v>
-      </c>
-      <c r="N1" t="str">
-        <v>date</v>
-      </c>
-      <c r="O1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="P1" t="str">
-        <v>poll</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>message</v>
-      </c>
-      <c r="R1" t="str">
-        <v>date</v>
-      </c>
-      <c r="S1" t="str">
-        <v>__v</v>
-      </c>
-      <c r="T1" t="str">
-        <v>name</v>
-      </c>
-      <c r="U1" t="str">
-        <v>email</v>
-      </c>
-      <c r="V1" t="str">
-        <v>message</v>
-      </c>
-      <c r="W1" t="str">
-        <v>date</v>
-      </c>
-      <c r="X1" t="str">
         <v>__v</v>
       </c>
     </row>
@@ -472,9 +415,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>John Hardenberg</v>
+      </c>
+      <c r="B3" t="str">
+        <v>johnvhardenberg@googlemail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Naaaa, das ist mein zweiter Test! Klappt zwar safe nicht, aber mal gucken.</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44405.42871798611</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>